--- a/pc/public/excel_template/hrm/payslip.xlsx
+++ b/pc/public/excel_template/hrm/payslip.xlsx
@@ -30,7 +30,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsPayslip;%&gt;&lt;%=comment.pay_date%&gt;</t>
+    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsPayslip;%&gt;&lt;%=comment.pay_month_lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr.map((item) =&gt; item.lbl)%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
@@ -72,16 +72,16 @@
     <t xml:space="preserve">&lt;%=comment.create_usr_id_lbl%&gt;&lt;%selectList.create_usr_id = data.findAllUsr.map((item) =&gt; item.lbl)%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.create_usr_id.join(",") }"` })%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.create_time%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.create_time_lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.update_usr_id_lbl%&gt;&lt;%selectList.update_usr_id = data.findAllUsr.map((item) =&gt; item.lbl)%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.update_usr_id.join(",") }"` })%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.update_time%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%forRow model in data.findAllPayslip%&gt;&lt;%~model.pay_date ? new Date(model.pay_date) : ""%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.update_time_lbl%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%forRow model in data.findAllPayslip%&gt;&lt;%~model.pay_month ? new Date(model.pay_month) : ""%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.usr_id_lbl%&gt;</t>

--- a/pc/public/excel_template/hrm/payslip.xlsx
+++ b/pc/public/excel_template/hrm/payslip.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsPayslip;%&gt;&lt;%=comment.pay_month_lbl%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr.map((item) =&gt; item.lbl)%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.job_num%&gt;</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">&lt;%forRow model in data.findAllPayslip%&gt;&lt;%~model.pay_month ? new Date(model.pay_month) : ""%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=model.usr_id_lbl%&gt;</t>
+    <t xml:space="preserve">&lt;%=model.lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.job_num%&gt;</t>
